--- a/análisis/Requerimientos/Funcionales/RF03_Definir bloque horario.xlsx
+++ b/análisis/Requerimientos/Funcionales/RF03_Definir bloque horario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -651,6 +651,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,7 +1828,7 @@
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="B5" sqref="B5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1883,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
